--- a/api/接口信息.xlsx
+++ b/api/接口信息.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhigang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhigang/project/wechar/hstl/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="33000" yWindow="4660" windowWidth="21940" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>接口名称</t>
   </si>
@@ -627,14 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userId,departmentId,workType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workUserId,offset,limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wordId,offset,limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,6 +794,259 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>xin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取职教考试随机题目</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/studyQuestionAction/getQuestionsByNumAndTypeAndDepartmentId.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题数、工种类型、题目类型（1业务，2党政）部门编号，题库分类编号、是否隐藏</t>
+    <rPh sb="0" eb="1">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'zhogn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'mu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>y'w</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dang'zheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ti'ku</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yin'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8089/studyQuestionAction/getQuestionsByNumAndTypeAndDepartmentId.json?nums=1&amp;workType=0&amp;departmentId=0&amp;catId=0&amp;isHide=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workUserId,offset,limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums，workType，type,departmentId，catId，isHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职教成绩日志提交</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职教成绩提交</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/submitAchievement.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/submitQuestionLogsjson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个考试成绩记录</t>
+    <rPh sb="0" eb="1">
+      <t>cha'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入一个做题日志</t>
+    <rPh sb="0" eb="1">
+      <t>cha'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId，questionId，questionContext，setId，answer，correctAnswer，isRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setId,enterUserId,correctNums,correctScore,errorNums，errorScore,costTime,percentScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库编号，做题用户编号，正确题数，正确分数，错误题，错误得分，百分比</t>
+    <rPh sb="0" eb="1">
+      <t>ti'ku</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo'ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zheng'que</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zheng'que</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fen'shu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>de'f</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bai'fen'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号，题目编号，题库编号，正确答案，选择答案，是否正确</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'ku</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bian'hao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zheng'que</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>da'an</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>da'an</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zheng'que</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,6 +1245,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,23 +1275,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,17 +1604,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -1383,12 +1628,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
@@ -1406,282 +1651,340 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H8" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
+    <row r="12" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
+    <row r="13" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6" t="s">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="15" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="C20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="H20" s="10" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/接口信息.xlsx
+++ b/api/接口信息.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhigang/project/wechar/hstl/api/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="4660" windowWidth="21940" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="36520" yWindow="760" windowWidth="37480" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>接口名称</t>
   </si>
@@ -771,10 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/app/service/appServiceInterface/getDepartmentList.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/app/service/appServiceInterface/editUserInfo.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/studyQuestionAction/getQuestionsByNumAndTypeAndDepartmentId.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题数、工种类型、题目类型（1业务，2党政）部门编号，题库分类编号、是否隐藏</t>
     <rPh sb="0" eb="1">
       <t>ti</t>
@@ -915,10 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/app/service/appServiceInterface/submitQuestionLogsjson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插入一个考试成绩记录</t>
     <rPh sb="0" eb="1">
       <t>cha'ru</t>
@@ -1048,6 +1031,145 @@
     <rPh sb="27" eb="28">
       <t>zheng'que</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询操作，按照后台sort进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取闯关分类列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据闯关分类列出关卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询：根据闯关分类编号，用户编号，获取用闯关列表，并在状态中加上用户是否过关，根据用户成绩表和过关信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡分类编号，用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取闯关题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闯关编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获取关卡中的题目数，随机获取题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取本周答题闯关的排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡成绩提交</t>
+    <rPh sb="4" eb="5">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡做题日志提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交操作，根据成绩信息保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交操作，请求参数为json list集合，接口写法参考，职教成绩详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职教考试分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回职教题库分类类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职教考试本周排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（1：党政，2：业务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/submitQuestionLogsjson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/studyQuestionAction/getQuestionsByNumAndTypeAndDepartmentId.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/findQuestionCategory.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/getDepartmentList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catId,userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/findByCustomsInfoList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/findByCustomsCategory.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/findByCustomsQuestionList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/findUserRankingList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/submitCustomsAchievement.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/submitCustomsUserLogs.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/customs/findByCustomsRankingList.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1112,18 +1234,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="19.600000000000001"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12.9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1222,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1242,19 +1352,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,10 +1391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1339,7 +1452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1374,7 +1487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1551,7 +1664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1559,25 +1672,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="37" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -1651,345 +1764,512 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="102">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="104" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="65" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5" t="s">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:8" ht="16" customHeight="1">
+      <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="50" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="39" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
+    <row r="20" spans="1:8" ht="30">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:8" ht="17">
+      <c r="A21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8" t="s">
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="20"/>
+      <c r="B24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60">
+      <c r="A25" s="20"/>
+      <c r="B25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="20"/>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17">
+      <c r="A28" s="20"/>
+      <c r="B28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
+      <c r="A29" s="20"/>
+      <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/api/接口信息.xlsx
+++ b/api/接口信息.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhigang/project/wechar/hstl/api/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36520" yWindow="760" windowWidth="37480" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <t>接口名称</t>
   </si>
@@ -755,10 +760,6 @@
   </si>
   <si>
     <t>/app/service/appServiceInterfacegetAchievementListByWork.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/service/appServiceInterface/getAchievementListByZj.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1170,6 +1171,95 @@
   </si>
   <si>
     <t>/app/service/customs/findByCustomsRankingList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取题库排行榜</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'ku</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'hang'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/findUserRankingListByCatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询操作</t>
+    <rPh sb="0" eb="1">
+      <t>ch'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cao'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <rPh sb="0" eb="1">
+      <t>pai'hang'bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有用户考试信息</t>
+    <rPh sb="0" eb="1">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kao'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/getAchievementListByZj.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/getAchievementListLindao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/queryUserById.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,20 +1364,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1298,9 +1388,16 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1309,21 +1406,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1352,52 +1438,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1664,7 +1750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1672,26 +1758,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="37" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="37" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1716,8 +1802,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1740,8 +1826,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1764,102 +1850,102 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="102">
-      <c r="A6" s="13"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="104" customHeight="1">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:8" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="68">
-      <c r="A8" s="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="65" customHeight="1">
-      <c r="A9" s="14"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1874,8 +1960,8 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1885,7 +1971,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -1896,8 +1982,8 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1916,13 +2002,13 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -1934,13 +2020,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>58</v>
@@ -1952,8 +2038,8 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="50" customHeight="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1970,8 +2056,8 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="58" customHeight="1">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
@@ -1988,8 +2074,8 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2008,7 +2094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42" customHeight="1">
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
@@ -2028,7 +2114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31" customHeight="1">
+    <row r="18" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
         <v>53</v>
@@ -2048,7 +2134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1">
+    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="6" t="s">
         <v>38</v>
@@ -2068,8 +2154,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
       <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
@@ -2090,166 +2176,217 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="20"/>
-      <c r="B24" s="11" t="s">
+      <c r="E24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="60">
-      <c r="A25" s="20"/>
-      <c r="B25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
-      <c r="A26" s="20"/>
-      <c r="B26" s="11" t="s">
+      <c r="E26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="28" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17">
-      <c r="A28" s="20"/>
-      <c r="B28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45">
-      <c r="A29" s="20"/>
-      <c r="B29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
-        <v>114</v>
+      <c r="C30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2403,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/api/接口信息.xlsx
+++ b/api/接口信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -671,10 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/app/service/appServiceInterface/getAchievementListByWorkDetails.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/app/service/appServiceInterface/getSpecialistDetails.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +752,6 @@
   </si>
   <si>
     <t>web/question/question_work_model.html?workId=3&amp;userId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/service/appServiceInterfacegetAchievementListByWork.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1260,6 +1252,14 @@
   </si>
   <si>
     <t>/app/service/appServiceInterface/queryUserById.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/getAchievementListByWorkDetails.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/service/appServiceInterface/getAchievementListByWork.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,6 +1450,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,10 +1468,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1473,12 +1479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1803,14 +1803,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>67</v>
@@ -1827,12 +1827,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
@@ -1851,15 +1851,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -1867,85 +1867,85 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1961,17 +1961,17 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -1983,12 +1983,12 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>59</v>
@@ -2003,12 +2003,12 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
@@ -2021,12 +2021,12 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>58</v>
@@ -2039,7 +2039,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2057,12 +2057,12 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>34</v>
@@ -2075,7 +2075,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
@@ -2177,215 +2177,215 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>83</v>
+      <c r="E21" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>121</v>
+      <c r="C22" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
     </row>
